--- a/data/60p.xlsx
+++ b/data/60p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="32065" windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,33 +35,35 @@
     <t>丢包率</t>
   </si>
   <si>
-    <t>平均FCT (ns)</t>
+    <t>FCT(ns)</t>
   </si>
   <si>
     <t>无损网络</t>
   </si>
   <si>
-    <t>传统算法</t>
+    <t>Traditional</t>
   </si>
   <si>
-    <t>SACK-RoCE算法</t>
+    <t>SACK-RoCE</t>
   </si>
   <si>
-    <t>SLR算法</t>
+    <t>SLR</t>
   </si>
   <si>
-    <t>SNACK算法</t>
+    <t>SNACK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,10 +75,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -461,9 +462,7 @@
         <color rgb="FFDEE0E3"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -474,7 +473,9 @@
         <color rgb="FFDEE0E3"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,9 +578,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,39 +724,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -811,221 +817,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,9 +834,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1076,15 +868,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1154,132 +946,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1290,181 +1117,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.5765765765766" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5765765765766" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5765765765766" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="18.3" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="8">
         <v>766930</v>
       </c>
     </row>
-    <row r="4" ht="18.3" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B3" s="9">
         <v>0.0001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C3" s="8">
         <v>781287</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B4" s="9">
         <v>0.001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C4" s="8">
         <v>1029325</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B5" s="10">
         <v>0.01</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C5" s="8">
         <v>3450482</v>
       </c>
     </row>
-    <row r="7" ht="18.3" customHeight="1" spans="1:3">
-      <c r="A7" s="8" t="s">
+    <row r="6" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B6" s="9">
         <v>0.0001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C6" s="8">
         <v>807999</v>
       </c>
     </row>
-    <row r="8" ht="31.75" spans="1:3">
-      <c r="A8" s="9" t="s">
+    <row r="7" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B7" s="9">
         <v>0.001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C7" s="8">
         <v>811386</v>
       </c>
     </row>
-    <row r="9" ht="31.75" spans="1:3">
-      <c r="A9" s="10" t="s">
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B8" s="10">
         <v>0.01</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C8" s="8">
         <v>1459914</v>
       </c>
     </row>
-    <row r="10" ht="18.3" customHeight="1" spans="1:3">
-      <c r="A10" s="8" t="s">
+    <row r="9" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B9" s="9">
         <v>0.0001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C9" s="8">
         <v>792360</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="1:3">
-      <c r="A11" s="9" t="s">
+    <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B10" s="9">
         <v>0.001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C10" s="8">
         <v>993713</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="1:3">
-      <c r="A12" s="10" t="s">
+    <row r="11" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B11" s="10">
         <v>0.01</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C11" s="8">
         <v>2794422</v>
       </c>
     </row>
-    <row r="13" ht="18.3" customHeight="1" spans="1:3">
-      <c r="A13" s="8" t="s">
+    <row r="12" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B12" s="9">
         <v>0.0001</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C12" s="8">
         <v>768493</v>
       </c>
     </row>
-    <row r="14" ht="31.75" spans="1:3">
-      <c r="A14" s="9" t="s">
+    <row r="13" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B13" s="9">
         <v>0.001</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C13" s="8">
         <v>773977</v>
       </c>
     </row>
-    <row r="15" ht="31.75" spans="1:3">
-      <c r="A15" s="10" t="s">
+    <row r="14" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B14" s="10">
         <v>0.01</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C14" s="8">
         <v>784321</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>